--- a/ch_10/ch_10-solutions-in-progress.xlsx
+++ b/ch_10/ch_10-solutions-in-progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26610"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\ch_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4415DF72-E111-42F3-914D-E48D10DF8618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81A0021-3655-42A3-91A5-3AB250F369CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="array-references" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="unique" sheetId="5" r:id="rId3"/>
     <sheet name="filter" sheetId="6" r:id="rId4"/>
     <sheet name="sort-sortby" sheetId="7" r:id="rId5"/>
-    <sheet name="xlookup" sheetId="8" r:id="rId6"/>
+    <sheet name="dm_sales-original" sheetId="9" r:id="rId6"/>
+    <sheet name="xlookup" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +40,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -51,16 +53,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="43">
   <si>
     <t>Array:</t>
   </si>
@@ -105,9 +121,6 @@
   </si>
   <si>
     <t>Pam</t>
-  </si>
-  <si>
-    <t>Beesly</t>
   </si>
   <si>
     <t>Sticky Notes</t>
@@ -190,6 +203,9 @@
   <si>
     <t>product_price</t>
   </si>
+  <si>
+    <t>File folders</t>
+  </si>
 </sst>
 </file>
 
@@ -197,7 +213,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -246,7 +262,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -254,15 +270,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -280,8 +299,70 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>8</v>
+    <v>2</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEFF313B-2AE6-48A7-9FFB-D14CA4CAABE1}" name="dm_sales_OG" displayName="dm_sales_OG" ref="A1:F16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEFF313B-2AE6-48A7-9FFB-D14CA4CAABE1}" name="dm_sales_array" displayName="dm_sales_array" ref="A1:F16" totalsRowShown="0">
   <autoFilter ref="A1:F16" xr:uid="{AEFF313B-2AE6-48A7-9FFB-D14CA4CAABE1}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{66A576D4-9B7C-438B-B561-A8C31C0019A6}" name="trans_id"/>
@@ -296,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D51EDD28-B905-40E1-B691-26DE0D47A5BF}" name="dm_sales_3" displayName="dm_sales_3" ref="A1:F16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D51EDD28-B905-40E1-B691-26DE0D47A5BF}" name="dm_sales_unique" displayName="dm_sales_unique" ref="A1:F16" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CFBFB7F1-1404-40B0-AC84-DB75A295FBEE}" name="trans_id"/>
     <tableColumn id="2" xr3:uid="{9521C06B-9E46-4D0C-ACEB-3BDEFF642F0D}" name="emp_first"/>
@@ -310,7 +391,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A90EFF67-4703-459F-89C0-25C7EBB3BCE0}" name="dm_sales_4" displayName="dm_sales_4" ref="A1:F16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A90EFF67-4703-459F-89C0-25C7EBB3BCE0}" name="dm_sales_filter" displayName="dm_sales_filter" ref="A1:F16" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{81880CE7-7CB8-4516-A05B-87E29A0C7861}" name="trans_id"/>
     <tableColumn id="2" xr3:uid="{6DAA1049-22D2-4070-8241-3343B3C9FFAF}" name="emp_first"/>
@@ -324,7 +405,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{65325D94-3C47-4089-9477-9145DD7D5FD6}" name="dm_sales" displayName="dm_sales" ref="A1:F16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{65325D94-3C47-4089-9477-9145DD7D5FD6}" name="dm_sales_sort" displayName="dm_sales_sort" ref="A1:F16" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6EA823BD-A818-44A3-89CD-B97189FDAF31}" name="trans_id"/>
     <tableColumn id="2" xr3:uid="{13C9DF14-C673-47FA-A535-BC68907F36A1}" name="emp_first"/>
@@ -338,37 +419,54 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F9F3E84B-F706-4DD6-8CCD-E4438BCD0D12}" name="transactions" displayName="transactions" ref="A1:G21" totalsRowShown="0">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{399ECED9-2088-4C29-B1E9-4E4A5D4E7FB4}" name="dm_sales" displayName="dm_sales" ref="A1:F16" totalsRowShown="0">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5A45010A-FB5B-4E8B-A85D-2B71CEA0AF64}" name="trans_id"/>
+    <tableColumn id="2" xr3:uid="{F8851059-9097-4EB9-A7FF-DEBC00598B74}" name="emp_first"/>
+    <tableColumn id="3" xr3:uid="{76299395-635B-497D-B3D6-524C119B6F1F}" name="emp_last"/>
+    <tableColumn id="4" xr3:uid="{850459B1-8A9D-4A2A-81FB-57FB4EAD8FD9}" name="product"/>
+    <tableColumn id="5" xr3:uid="{6BAE2059-6894-42F8-B7EF-E00918A37715}" name="quantity"/>
+    <tableColumn id="6" xr3:uid="{856BD276-9260-4C2F-AEC2-FB3F7ED99589}" name="sales_amt"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F9F3E84B-F706-4DD6-8CCD-E4438BCD0D12}" name="transactions" displayName="transactions" ref="A1:H21" totalsRowShown="0">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EEF479B5-2E93-497D-8501-736E4296481E}" name="trans_id"/>
-    <tableColumn id="2" xr3:uid="{8D4739B4-CB7C-43BF-BB19-2204FEA8792E}" name="trans_date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8D4739B4-CB7C-43BF-BB19-2204FEA8792E}" name="trans_date" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{FF52F6C4-75D3-401B-B687-5077D7CEED93}" name="branch_id"/>
     <tableColumn id="4" xr3:uid="{B9A8441C-8F6E-4200-861D-54E1DAFB6C03}" name="product_id"/>
     <tableColumn id="5" xr3:uid="{82220B8E-F7E4-4664-B59E-50A502801415}" name="quantity"/>
-    <tableColumn id="6" xr3:uid="{7B1B0320-C7A7-4FFA-9221-983D02057C07}" name="total_price" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{878DE153-2AB6-439B-B549-9E3D2F1A3B4C}" name="product_name" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{7B1B0320-C7A7-4FFA-9221-983D02057C07}" name="total_price" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5B854B4B-7CA1-4968-9CF3-5062269E3CA9}" name="product_name" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{DF358D5B-1E8F-4B77-9D68-BA0E29E88C1B}" name="branch_name" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{14C71386-E2D6-409C-A9CE-876265D941E8}" name="branches" displayName="branches" ref="I1:J4" totalsRowShown="0">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{14C71386-E2D6-409C-A9CE-876265D941E8}" name="branches" displayName="branches" ref="J1:K4" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4175D5DF-4E11-4DCA-9AC8-5318CEDFA460}" name="branch_id"/>
     <tableColumn id="2" xr3:uid="{A115BA84-576C-454D-81AB-A73E2142265D}" name="branch_name"/>
+    <tableColumn id="3" xr3:uid="{C13CCFBF-163D-440F-9533-E207C4D96AE4}" name="branch_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AB0967EE-D78A-47C6-BC15-4E8FC012AEC0}" name="products" displayName="products" ref="I7:K12" totalsRowShown="0">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AB0967EE-D78A-47C6-BC15-4E8FC012AEC0}" name="products" displayName="products" ref="J7:L12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{425C0671-A57D-4F2A-B27E-89BDE6F6A323}" name="product_id"/>
-    <tableColumn id="2" xr3:uid="{5D9FF2AA-097F-47C6-9D85-4DA8673A8912}" name="product_name"/>
+    <tableColumn id="2" xr3:uid="{5D9FF2AA-097F-47C6-9D85-4DA8673A8912}" name="product_id"/>
+    <tableColumn id="4" xr3:uid="{28705471-6AD3-47AC-9A86-8A9C23F7F018}" name="product_name"/>
     <tableColumn id="3" xr3:uid="{843E4B4C-745F-4EC9-8059-C1DBE3428C67}" name="product_price" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -737,7 +835,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="F16" sqref="A2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -773,10 +871,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -795,16 +893,16 @@
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>99.9</v>
       </c>
       <c r="I2" t="str" cm="1">
-        <f t="array" ref="I2">INDEX(dm_sales_OG[product],
-MATCH(0, COUNTIF($I$1:I1, dm_sales_OG[product]),0))</f>
+        <f t="array" ref="I2">INDEX(dm_sales_array[product],
+MATCH(0, COUNTIF($I$1:I1, dm_sales_array[product]),0))</f>
         <v>Copy Paper</v>
       </c>
       <c r="K2" t="str" cm="1">
-        <f t="array" ref="K2:K7">_xlfn.UNIQUE(dm_sales_OG[product])</f>
+        <f t="array" ref="K2:K8">_xlfn.UNIQUE(dm_sales_array[product])</f>
         <v>Copy Paper</v>
       </c>
     </row>
@@ -816,20 +914,20 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>12.45</v>
       </c>
       <c r="I3" t="str" cm="1">
-        <f t="array" ref="I3">INDEX(dm_sales_OG[product],
-MATCH(0, COUNTIF($I$1:I2, dm_sales_OG[product]),0))</f>
+        <f t="array" ref="I3">INDEX(dm_sales_array[product],
+MATCH(0, COUNTIF($I$1:I2, dm_sales_array[product]),0))</f>
         <v>Sticky Notes</v>
       </c>
       <c r="K3" t="str">
@@ -841,23 +939,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>39.979999999999997</v>
       </c>
       <c r="I4" t="str" cm="1">
-        <f t="array" ref="I4">INDEX(dm_sales_OG[product],
-MATCH(0, COUNTIF($I$1:I3, dm_sales_OG[product]),0))</f>
+        <f t="array" ref="I4">INDEX(dm_sales_array[product],
+MATCH(0, COUNTIF($I$1:I3, dm_sales_array[product]),0))</f>
         <v>Printer Ink</v>
       </c>
       <c r="K4" t="str">
@@ -869,23 +967,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>149.85</v>
       </c>
       <c r="I5" t="str" cm="1">
-        <f t="array" ref="I5">INDEX(dm_sales_OG[product],
-MATCH(0, COUNTIF($I$1:I4, dm_sales_OG[product]),0))</f>
+        <f t="array" ref="I5">INDEX(dm_sales_array[product],
+MATCH(0, COUNTIF($I$1:I4, dm_sales_array[product]),0))</f>
         <v>Envelopes</v>
       </c>
       <c r="K5" t="str">
@@ -903,17 +1001,17 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>14.97</v>
       </c>
       <c r="I6" t="str" cm="1">
-        <f t="array" ref="I6">INDEX(dm_sales_OG[product],
-MATCH(0, COUNTIF($I$1:I5, dm_sales_OG[product]),0))</f>
+        <f t="array" ref="I6">INDEX(dm_sales_array[product],
+MATCH(0, COUNTIF($I$1:I5, dm_sales_array[product]),0))</f>
         <v>Legal Pads</v>
       </c>
       <c r="K6" t="str">
@@ -928,7 +1026,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -936,11 +1034,11 @@
       <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>79.92</v>
       </c>
       <c r="K7" t="str">
-        <v>Rubber bands</v>
+        <v>File folders</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -948,19 +1046,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>24.9</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Rubber bands</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -968,18 +1069,18 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>99.95</v>
       </c>
     </row>
@@ -994,12 +1095,12 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>12</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>119.88</v>
       </c>
     </row>
@@ -1011,15 +1112,15 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>17.43</v>
       </c>
     </row>
@@ -1028,10 +1129,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1054,7 +1155,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -1068,13 +1169,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>15</v>
@@ -1088,13 +1189,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1108,13 +1209,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>60</v>
@@ -1136,7 +1237,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1171,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -1193,9 +1294,9 @@
       <c r="F2" s="4">
         <v>99.9</v>
       </c>
-      <c r="H2" t="str" cm="1">
-        <f t="array" ref="H2">_xlfn.UNIQUE(dm_sales_3[product], , TRUE)</f>
-        <v>Rubber bands</v>
+      <c r="H2" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="H2" ca="1">_xlfn.UNIQUE(dm_sales_unique[product], , TRUE)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -1206,10 +1307,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1223,13 +1324,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1238,10 +1339,10 @@
         <v>39.979999999999997</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4">
-        <f>COUNTA(_xlfn.ANCHORARRAY(H2))</f>
+        <f ca="1">COUNTA(_xlfn.ANCHORARRAY(H2))</f>
         <v>1</v>
       </c>
     </row>
@@ -1250,13 +1351,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -1276,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1293,7 +1394,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1310,13 +1411,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -1330,13 +1431,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1356,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>12</v>
@@ -1373,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1390,10 +1491,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1416,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -1430,13 +1531,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>15</v>
@@ -1450,13 +1551,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1470,13 +1571,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>60</v>
@@ -1498,7 +1599,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A2" sqref="A2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1533,7 +1634,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="str" cm="1">
-        <f t="array" ref="H1:M1">dm_sales_4[#Headers]</f>
+        <f t="array" ref="H1:M1">dm_sales_filter[#Headers]</f>
         <v>trans_id</v>
       </c>
       <c r="I1" t="str">
@@ -1572,14 +1673,14 @@
         <v>99.9</v>
       </c>
       <c r="H2" cm="1">
-        <f t="array" ref="H2:M3">_xlfn._xlws.FILTER(dm_sales_4[], dm_sales_4[product] = "Sticky Notes")</f>
+        <f t="array" ref="H2:M2">_xlfn._xlws.FILTER(dm_sales_filter[], dm_sales_filter[product] = "Sticky Notes")</f>
         <v>2</v>
       </c>
       <c r="I2" t="str">
         <v>Pam</v>
       </c>
       <c r="J2" t="str">
-        <v>Beesly</v>
+        <v>Halpert</v>
       </c>
       <c r="K2" t="str">
         <v>Sticky Notes</v>
@@ -1599,34 +1700,16 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" s="4">
         <v>12.45</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Sticky Notes</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3" s="5">
-        <v>24.9</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -1634,13 +1717,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1654,13 +1737,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -1669,7 +1752,7 @@
         <v>149.85</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
@@ -1683,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1692,7 +1775,7 @@
         <v>14.97</v>
       </c>
       <c r="H6" t="str" cm="1">
-        <f t="array" ref="H6:M6">dm_sales_4[#Headers]</f>
+        <f t="array" ref="H6:M6">dm_sales_filter[#Headers]</f>
         <v>trans_id</v>
       </c>
       <c r="I6" t="str">
@@ -1719,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1731,8 +1814,8 @@
         <v>79.92</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:M8">_xlfn._xlws.FILTER(dm_sales_4[], (dm_sales_4[product] = "Copy paper") *
-(dm_sales_4[quantity] &gt; 5))</f>
+        <f t="array" ref="H7:M8">_xlfn._xlws.FILTER(dm_sales_filter[], (dm_sales_filter[product] = "Copy paper") *
+(dm_sales_filter[quantity] &gt; 5))</f>
         <v>1</v>
       </c>
       <c r="I7" t="str">
@@ -1756,13 +1839,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -1777,7 +1860,7 @@
         <v>Pam</v>
       </c>
       <c r="J8" t="str">
-        <v>Beesly</v>
+        <v>Halpert</v>
       </c>
       <c r="K8" t="str">
         <v>Copy Paper</v>
@@ -1794,13 +1877,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1820,7 +1903,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>12</v>
@@ -1829,7 +1912,7 @@
         <v>119.88</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
@@ -1840,10 +1923,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1852,7 +1935,7 @@
         <v>17.43</v>
       </c>
       <c r="H11" t="str" cm="1">
-        <f t="array" ref="H11:M11">dm_sales_4[#Headers]</f>
+        <f t="array" ref="H11:M11">dm_sales_filter[#Headers]</f>
         <v>trans_id</v>
       </c>
       <c r="I11" t="str">
@@ -1876,10 +1959,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1891,8 +1974,8 @@
         <v>39.96</v>
       </c>
       <c r="H12" cm="1">
-        <f t="array" ref="H12:M21">_xlfn._xlws.FILTER(dm_sales_4[], (dm_sales_4[product] = "Copy paper") +
-(dm_sales_4[quantity] &gt; 5))</f>
+        <f t="array" ref="H12:M21">_xlfn._xlws.FILTER(dm_sales_filter[], (dm_sales_filter[product] = "Copy paper") +
+(dm_sales_filter[quantity] &gt; 5))</f>
         <v>1</v>
       </c>
       <c r="I12" t="str">
@@ -1922,7 +2005,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -1954,13 +2037,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>15</v>
@@ -1975,7 +2058,7 @@
         <v>Pam</v>
       </c>
       <c r="J14" t="str">
-        <v>Beesly</v>
+        <v>Halpert</v>
       </c>
       <c r="K14" t="str">
         <v>Copy Paper</v>
@@ -1992,13 +2075,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -2016,7 +2099,7 @@
         <v>Bernard</v>
       </c>
       <c r="K15" t="str">
-        <v>Sticky Notes</v>
+        <v>File folders</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -2030,13 +2113,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>60</v>
@@ -2071,7 +2154,7 @@
         <v>Pam</v>
       </c>
       <c r="J17" t="str">
-        <v>Beesly</v>
+        <v>Halpert</v>
       </c>
       <c r="K17" t="str">
         <v>Legal Pads</v>
@@ -2165,14 +2248,14 @@
     </row>
     <row r="23" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H24" cm="1">
-        <f t="array" ref="H24:M26">_xlfn._xlws.FILTER(dm_sales_4[],
-(dm_sales_4[sales_amt] &gt;= 100) +
-((dm_sales_4[quantity] &gt; 10) * (dm_sales_4[product] = "Envelopes")))</f>
+        <f t="array" ref="H24:M26">_xlfn._xlws.FILTER(dm_sales_filter[],
+(dm_sales_filter[sales_amt] &gt;= 100) +
+((dm_sales_filter[quantity] &gt; 10) * (dm_sales_filter[product] = "Envelopes")))</f>
         <v>4</v>
       </c>
       <c r="I24" t="str">
@@ -2245,7 +2328,7 @@
   <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F16" sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2284,10 +2367,10 @@
         <v>10</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="str" cm="1">
-        <f t="array" ref="Q1:V1">dm_sales[#Headers]</f>
+        <f t="array" ref="Q1:V1">dm_sales_sort[#Headers]</f>
         <v>trans_id</v>
       </c>
       <c r="R1" t="str">
@@ -2326,11 +2409,11 @@
         <v>99.9</v>
       </c>
       <c r="H2" cm="1">
-        <f t="array" ref="H2:H16">_xlfn.SORTBY(dm_sales[trans_id], dm_sales[sales_amt], -1)</f>
+        <f t="array" ref="H2:H16">_xlfn.SORTBY(dm_sales_sort[trans_id], dm_sales_sort[sales_amt], -1)</f>
         <v>4</v>
       </c>
       <c r="Q2" cm="1">
-        <f t="array" ref="Q2:V16">_xlfn.SORTBY(dm_sales[], dm_sales[emp_last], -1, dm_sales[product], 1)</f>
+        <f t="array" ref="Q2:V16">_xlfn.SORTBY(dm_sales_sort[], dm_sales_sort[emp_last], -1, dm_sales_sort[product], 1)</f>
         <v>13</v>
       </c>
       <c r="R2" t="str">
@@ -2357,10 +2440,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -2395,13 +2478,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2436,13 +2519,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -2483,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -2521,7 +2604,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -2536,22 +2619,22 @@
         <v>12</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R7" t="str">
-        <v>Jim</v>
+        <v>Pam</v>
       </c>
       <c r="S7" t="str">
         <v>Halpert</v>
       </c>
       <c r="T7" t="str">
-        <v>Envelopes</v>
+        <v>Copy Paper</v>
       </c>
       <c r="U7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V7">
-        <v>119.88</v>
+        <v>79.92</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -2559,13 +2642,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -2577,7 +2660,7 @@
         <v>13</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R8" t="str">
         <v>Jim</v>
@@ -2586,13 +2669,13 @@
         <v>Halpert</v>
       </c>
       <c r="T8" t="str">
-        <v>Legal Pads</v>
+        <v>Envelopes</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="V8">
-        <v>14.97</v>
+        <v>119.88</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
@@ -2600,13 +2683,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -2618,7 +2701,7 @@
         <v>14</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R9" t="str">
         <v>Jim</v>
@@ -2627,13 +2710,13 @@
         <v>Halpert</v>
       </c>
       <c r="T9" t="str">
-        <v>Printer Ink</v>
+        <v>Legal Pads</v>
       </c>
       <c r="U9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>79.92</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -2647,7 +2730,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>12</v>
@@ -2659,22 +2742,22 @@
         <v>3</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R10" t="str">
-        <v>Andy</v>
+        <v>Pam</v>
       </c>
       <c r="S10" t="str">
-        <v>Bernard</v>
+        <v>Halpert</v>
       </c>
       <c r="T10" t="str">
-        <v>Copy Paper</v>
+        <v>Legal Pads</v>
       </c>
       <c r="U10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V10">
-        <v>39.96</v>
+        <v>17.43</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
@@ -2685,10 +2768,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -2700,22 +2783,22 @@
         <v>11</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R11" t="str">
-        <v>Andy</v>
+        <v>Jim</v>
       </c>
       <c r="S11" t="str">
-        <v>Bernard</v>
+        <v>Halpert</v>
       </c>
       <c r="T11" t="str">
-        <v>Legal Pads</v>
+        <v>Printer Ink</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V11">
-        <v>59.97</v>
+        <v>79.92</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
@@ -2723,10 +2806,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -2741,22 +2824,22 @@
         <v>7</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12" t="str">
-        <v>Andy</v>
+        <v>Pam</v>
       </c>
       <c r="S12" t="str">
-        <v>Bernard</v>
+        <v>Halpert</v>
       </c>
       <c r="T12" t="str">
-        <v>Printer Ink</v>
+        <v>Sticky Notes</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V12">
-        <v>39.979999999999997</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -2770,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -2782,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R13" t="str">
         <v>Andy</v>
@@ -2791,13 +2874,13 @@
         <v>Bernard</v>
       </c>
       <c r="T13" t="str">
-        <v>Sticky Notes</v>
+        <v>Copy Paper</v>
       </c>
       <c r="U13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V13">
-        <v>24.9</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
@@ -2805,13 +2888,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>15</v>
@@ -2823,22 +2906,22 @@
         <v>5</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R14" t="str">
-        <v>Pam</v>
+        <v>Andy</v>
       </c>
       <c r="S14" t="str">
-        <v>Beesly</v>
+        <v>Bernard</v>
       </c>
       <c r="T14" t="str">
-        <v>Copy Paper</v>
+        <v>File folders</v>
       </c>
       <c r="U14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V14">
-        <v>79.92</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -2846,13 +2929,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -2864,22 +2947,22 @@
         <v>15</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R15" t="str">
-        <v>Pam</v>
+        <v>Andy</v>
       </c>
       <c r="S15" t="str">
-        <v>Beesly</v>
+        <v>Bernard</v>
       </c>
       <c r="T15" t="str">
         <v>Legal Pads</v>
       </c>
       <c r="U15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V15">
-        <v>17.43</v>
+        <v>59.97</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -2887,13 +2970,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>60</v>
@@ -2905,27 +2988,27 @@
         <v>2</v>
       </c>
       <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="S16" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="T16" t="str">
+        <v>Printer Ink</v>
+      </c>
+      <c r="U16">
         <v>2</v>
       </c>
-      <c r="R16" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="S16" t="str">
-        <v>Beesly</v>
-      </c>
-      <c r="T16" t="str">
-        <v>Sticky Notes</v>
-      </c>
-      <c r="U16">
-        <v>5</v>
-      </c>
       <c r="V16">
-        <v>12.45</v>
+        <v>39.979999999999997</v>
       </c>
     </row>
     <row r="29" spans="17:22" x14ac:dyDescent="0.45">
       <c r="Q29" t="str" cm="1">
-        <f t="array" ref="Q29:V29">dm_sales[#Headers]</f>
+        <f t="array" ref="Q29:V29">dm_sales_sort[#Headers]</f>
         <v>trans_id</v>
       </c>
       <c r="R29" t="str">
@@ -2946,7 +3029,7 @@
     </row>
     <row r="30" spans="17:22" x14ac:dyDescent="0.45">
       <c r="Q30" cm="1">
-        <f t="array" ref="Q30:V44">_xlfn._xlws.SORT(dm_sales[], MATCH("quantity", dm_sales[#Headers]), -1)</f>
+        <f t="array" ref="Q30:V44">_xlfn._xlws.SORT(dm_sales_sort[], MATCH("quantity", dm_sales_sort[#Headers]), -1)</f>
         <v>15</v>
       </c>
       <c r="R30" t="str">
@@ -3056,7 +3139,7 @@
         <v>Bernard</v>
       </c>
       <c r="T35" t="str">
-        <v>Sticky Notes</v>
+        <v>File folders</v>
       </c>
       <c r="U35">
         <v>10</v>
@@ -3073,7 +3156,7 @@
         <v>Pam</v>
       </c>
       <c r="S36" t="str">
-        <v>Beesly</v>
+        <v>Halpert</v>
       </c>
       <c r="T36" t="str">
         <v>Copy Paper</v>
@@ -3113,7 +3196,7 @@
         <v>Pam</v>
       </c>
       <c r="S38" t="str">
-        <v>Beesly</v>
+        <v>Halpert</v>
       </c>
       <c r="T38" t="str">
         <v>Legal Pads</v>
@@ -3133,7 +3216,7 @@
         <v>Pam</v>
       </c>
       <c r="S39" t="str">
-        <v>Beesly</v>
+        <v>Halpert</v>
       </c>
       <c r="T39" t="str">
         <v>Sticky Notes</v>
@@ -3247,7 +3330,7 @@
     </row>
     <row r="48" spans="17:22" x14ac:dyDescent="0.45">
       <c r="Q48" t="str" cm="1">
-        <f t="array" ref="Q48:V48">dm_sales[#Headers]</f>
+        <f t="array" ref="Q48:V48">dm_sales_sort[#Headers]</f>
         <v>trans_id</v>
       </c>
       <c r="R48" t="str">
@@ -3268,7 +3351,7 @@
     </row>
     <row r="49" spans="17:22" x14ac:dyDescent="0.45">
       <c r="Q49" cm="1">
-        <f t="array" ref="Q49:V63">_xlfn.SORTBY(dm_sales[], dm_sales[sales_amt], -1)</f>
+        <f t="array" ref="Q49:V63">_xlfn.SORTBY(dm_sales_sort[], dm_sales_sort[sales_amt], -1)</f>
         <v>4</v>
       </c>
       <c r="R49" t="str">
@@ -3355,7 +3438,7 @@
         <v>Pam</v>
       </c>
       <c r="S53" t="str">
-        <v>Beesly</v>
+        <v>Halpert</v>
       </c>
       <c r="T53" t="str">
         <v>Copy Paper</v>
@@ -3478,7 +3561,7 @@
         <v>Bernard</v>
       </c>
       <c r="T59" t="str">
-        <v>Sticky Notes</v>
+        <v>File folders</v>
       </c>
       <c r="U59">
         <v>10</v>
@@ -3495,7 +3578,7 @@
         <v>Pam</v>
       </c>
       <c r="S60" t="str">
-        <v>Beesly</v>
+        <v>Halpert</v>
       </c>
       <c r="T60" t="str">
         <v>Legal Pads</v>
@@ -3555,7 +3638,7 @@
         <v>Pam</v>
       </c>
       <c r="S63" t="str">
-        <v>Beesly</v>
+        <v>Halpert</v>
       </c>
       <c r="T63" t="str">
         <v>Sticky Notes</v>
@@ -3576,11 +3659,349 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614D0095-11E4-419D-8529-26C80F39F032}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>39.979999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
+        <v>149.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>79.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>99.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
+        <v>119.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4">
+        <v>17.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>79.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4">
+        <v>74.849999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>59.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16" s="4">
+        <v>14.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0654905A-1567-4C76-B37B-05DFF7B7C586}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3592,21 +4013,22 @@
     <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="11.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3615,19 +4037,22 @@
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3647,17 +4072,21 @@
         <v>99.9</v>
       </c>
       <c r="G2" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Copy Paper</v>
       </c>
-      <c r="I2">
+      <c r="H2" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Scranton</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3677,17 +4106,21 @@
         <v>12.45</v>
       </c>
       <c r="G3" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Sticky Notes</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Scranton</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3707,17 +4140,21 @@
         <v>199.8</v>
       </c>
       <c r="G4" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Copy Paper</v>
       </c>
-      <c r="I4">
+      <c r="H4" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Stamford</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3737,11 +4174,15 @@
         <v>39.979999999999997</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Printer Ink</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H5" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Nashua</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3752,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -3761,11 +4202,15 @@
         <v>149.85</v>
       </c>
       <c r="G6" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
-        <v>Copy Paper</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
+        <v>Other</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Scranton</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3785,20 +4230,24 @@
         <v>14.97</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Legal Pads</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Stamford</v>
+      </c>
+      <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3818,20 +4267,24 @@
         <v>24.9</v>
       </c>
       <c r="G8" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Sticky Notes</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Stamford</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>9.99</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3851,20 +4304,24 @@
         <v>55.92</v>
       </c>
       <c r="G9" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Envelopes</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Scranton</v>
+      </c>
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="5">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3884,20 +4341,24 @@
         <v>99.95</v>
       </c>
       <c r="G10" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Printer Ink</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Nashua</v>
+      </c>
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="5">
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3917,20 +4378,24 @@
         <v>119.88</v>
       </c>
       <c r="G11" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Copy Paper</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Nashua</v>
+      </c>
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="5">
         <v>6.99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3950,20 +4415,24 @@
         <v>17.43</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Sticky Notes</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Scranton</v>
+      </c>
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="5">
         <v>4.99</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3983,11 +4452,15 @@
         <v>20.97</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Envelopes</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H13" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Stamford</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4007,11 +4480,15 @@
         <v>49.9</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Legal Pads</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H14" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Scranton</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4022,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -4031,11 +4508,15 @@
         <v>79.959999999999994</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
-        <v>Printer Ink</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
+        <v>Other</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Stamford</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4055,11 +4536,15 @@
         <v>14.94</v>
       </c>
       <c r="G16" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Sticky Notes</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Nashua</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4079,11 +4564,15 @@
         <v>34.950000000000003</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Envelopes</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Scranton</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4103,11 +4592,15 @@
         <v>79.92</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Copy Paper</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Stamford</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4127,11 +4620,15 @@
         <v>74.849999999999994</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Legal Pads</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Nashua</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4151,11 +4648,15 @@
         <v>59.97</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Printer Ink</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Scranton</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4175,8 +4676,12 @@
         <v>69.900000000000006</v>
       </c>
       <c r="G21" s="5" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Other")</f>
         <v>Envelopes</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]],branches[branch_id], branches[branch_name])</f>
+        <v>Stamford</v>
       </c>
     </row>
   </sheetData>
